--- a/DS and ALGO - 450 Questions/(DS and ALGO) - 450 Questions.xlsx
+++ b/DS and ALGO - 450 Questions/(DS and ALGO) - 450 Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tauhid Monwar\Documents\Learning\Data Structure\DS and ALGO - 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4911507-45CA-455B-9F16-F8372471B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EDBDCD-DC90-4CCA-B875-9833AC2F870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1916,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1927,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1938,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1949,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1960,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -7381,5 +7381,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/DS and ALGO - 450 Questions/(DS and ALGO) - 450 Questions.xlsx
+++ b/DS and ALGO - 450 Questions/(DS and ALGO) - 450 Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tauhid Monwar\Documents\Learning\Data Structure\DS and ALGO - 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32382D5D-E3FD-4236-A8E2-DDAFC942668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02CB5AE-F52D-4E69-9D80-68B6C041CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1856,7 +1856,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1942,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>463</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>463</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
